--- a/results_it/late_March_corr_ranking.xlsx
+++ b/results_it/late_March_corr_ranking.xlsx
@@ -453,1171 +453,1171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4550034502311341</v>
+        <v>0.4603340226189523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01152574922227214</v>
+        <v>0.009165016201841233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4338054525758495</v>
+        <v>0.4257826659687603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01661959865581722</v>
+        <v>0.01693309826815375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4275988037729742</v>
+        <v>0.4257826659687602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01842325168492156</v>
+        <v>0.01693309826815375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4226930575128675</v>
+        <v>0.4213676535146478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01996079380629586</v>
+        <v>0.01823638912950572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3828622010259568</v>
+        <v>0.4118366914366242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03677669806492333</v>
+        <v>0.02133475285767505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3828622010259568</v>
+        <v>0.4105251743709368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03677669806492333</v>
+        <v>0.02179320666801406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3799992282695747</v>
+        <v>0.4094593715529523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03832837172171081</v>
+        <v>0.02217171921772993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3785414577197161</v>
+        <v>0.3726409698023373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03913841757086502</v>
+        <v>0.0389665175941986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3749045696892401</v>
+        <v>0.3667791605742911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04121932789069833</v>
+        <v>0.04240025310201127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3692317706834746</v>
+        <v>-0.3546287261934477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04464098348980925</v>
+        <v>0.05028887715886331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3674620435081102</v>
+        <v>-0.3472044394803799</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04575355069309134</v>
+        <v>0.05565511421758591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3671838755328282</v>
+        <v>-0.3353997152988145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04593041527259517</v>
+        <v>0.0651066555304009</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3623622469819814</v>
+        <v>0.3279729534234225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04908346930144435</v>
+        <v>0.07166689230713744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3623622469819814</v>
+        <v>0.3165151717876439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04908346930144435</v>
+        <v>0.08277983455003206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3617220835991754</v>
+        <v>0.3112563803914835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0495146968942624</v>
+        <v>0.08830298975439539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3545820932725033</v>
+        <v>0.3054672161816225</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05453068544636921</v>
+        <v>0.09470377664139544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3458178949605294</v>
+        <v>0.3048884557699168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06122587701575352</v>
+        <v>0.09536254124734922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3450412392218833</v>
+        <v>0.2984326961176556</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06184889003811222</v>
+        <v>0.1029482314882749</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3363601033176478</v>
+        <v>0.2984326961176555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06915511611046832</v>
+        <v>0.1029482314882749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.3339925507304108</v>
+        <v>0.2686084328546842</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07125954495038608</v>
+        <v>0.1439887818893545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3278276744471105</v>
+        <v>0.2686084328546841</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07697219072700837</v>
+        <v>0.1439887818893545</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3274544687777121</v>
+        <v>0.2675094280613568</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07732901530729225</v>
+        <v>0.1456996086461638</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.3242697802154806</v>
+        <v>0.2650312726711669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0804259448448237</v>
+        <v>0.1496113595819807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3141831399013428</v>
+        <v>0.2579351277476281</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09086513725976242</v>
+        <v>0.1612313396014076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3085317670165886</v>
+        <v>0.2508800044503763</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09714740855903002</v>
+        <v>0.1734103385435047</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3070699609690345</v>
+        <v>0.248448455922872</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09882458383162361</v>
+        <v>0.1777548627544104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3002290461021665</v>
+        <v>0.2421202688118185</v>
       </c>
       <c r="C28" t="n">
-        <v>0.106964967091726</v>
+        <v>0.189419953327275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.298794376720236</v>
+        <v>0.2418978695905749</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1087340555454386</v>
+        <v>0.1898394008586231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2940865556737136</v>
+        <v>0.2399609831773188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1146930340462224</v>
+        <v>0.1935198075671761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2770194839542073</v>
+        <v>0.2399423102987916</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1383386082218736</v>
+        <v>0.1935555289102053</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2770194839542072</v>
+        <v>0.2399423102987914</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1383386082218739</v>
+        <v>0.1935555289102057</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2751375510675256</v>
+        <v>0.2373931455807163</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1411482009966448</v>
+        <v>0.1984752200536656</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2736328290670212</v>
+        <v>0.2348345326954769</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1434242873881725</v>
+        <v>0.2034995491002519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2671232774825176</v>
+        <v>0.22940621924876</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1535777429826432</v>
+        <v>0.2144477326942151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2640451895085685</v>
+        <v>0.2280882023728389</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1585546193938961</v>
+        <v>0.2171655336433254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2626483485214713</v>
+        <v>0.2204486230687801</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1608507878937496</v>
+        <v>0.2333804487397777</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2497686456474612</v>
+        <v>-0.2199988001071189</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1831491834660336</v>
+        <v>0.2343598610977639</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2469583581702386</v>
+        <v>-0.2147515312041643</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18828880701005</v>
+        <v>0.2459887022661623</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2450175419136253</v>
+        <v>-0.2147515312041642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1918964652974363</v>
+        <v>0.2459887022661627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2431902658607802</v>
+        <v>0.2133013927969246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1953367241556058</v>
+        <v>0.2492688439435254</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2250096442857032</v>
+        <v>0.2128150616118549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2319052089135629</v>
+        <v>0.250375353984623</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2188217638878537</v>
+        <v>-0.2124137784143588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2453350675657368</v>
+        <v>0.2512908034520116</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2187355050813238</v>
+        <v>0.2107178419952954</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2455258471929839</v>
+        <v>0.2551841573883343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2173282229960079</v>
+        <v>0.2092581814023753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2486522418881906</v>
+        <v>0.2585667293669753</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2097596321682204</v>
+        <v>0.2022222739375948</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2659166251919524</v>
+        <v>0.2752829826181017</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.208469632770452</v>
+        <v>0.201829574883185</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2689350828354912</v>
+        <v>0.2762360883214726</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.208469632770452</v>
+        <v>0.1971904067002093</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2689350828354912</v>
+        <v>0.2876568088177063</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2049213129641915</v>
+        <v>0.1912219755136272</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2773520275642103</v>
+        <v>0.3027871775588607</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1974787877113135</v>
+        <v>0.1909043144149446</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2955514139277921</v>
+        <v>0.3036062587107662</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1744203211777298</v>
+        <v>0.1839038388998164</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3566124551253128</v>
+        <v>0.3220101241829089</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1673734910000385</v>
+        <v>0.1824897912433276</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3766702373322446</v>
+        <v>0.3258095187011761</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.1646801379126658</v>
+        <v>0.1804363654455215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3845067450194193</v>
+        <v>0.3313757770351277</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1646801379126658</v>
+        <v>0.1714381913454282</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3845067450194193</v>
+        <v>0.356447940335299</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1643180261434554</v>
+        <v>0.1679961134321765</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3855674728287223</v>
+        <v>0.3663302513830675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1639409246688668</v>
+        <v>0.1664893268040012</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3866739038226883</v>
+        <v>0.3707067024974905</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1583222243847116</v>
+        <v>0.162174871538709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4033752440449732</v>
+        <v>0.3834069438273859</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1560069851806772</v>
+        <v>0.1621748715387089</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4103741460372696</v>
+        <v>0.3834069438273859</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1427265844290658</v>
+        <v>0.1525351653563738</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4518149136484278</v>
+        <v>0.4126784038661515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1416681420037657</v>
+        <v>0.1460264016653353</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4552110109938462</v>
+        <v>0.4331311920462737</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.141529205651463</v>
+        <v>0.1344267769429323</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4556578057016696</v>
+        <v>0.4709207005009699</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.1414166320241386</v>
+        <v>0.1344267769429322</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4560199935507254</v>
+        <v>0.4709207005009708</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1405881682398541</v>
+        <v>-0.1314679476078763</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4586901471123197</v>
+        <v>0.480828074438455</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.1341292632213247</v>
+        <v>0.1300211522745093</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4797885937166774</v>
+        <v>0.4857113742474886</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.1341292632213247</v>
+        <v>0.1261384050811978</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4797885937166774</v>
+        <v>0.49894120377646</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1321885810327517</v>
+        <v>0.1237176046933611</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4862242026810142</v>
+        <v>0.507280473989877</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1243581849188804</v>
+        <v>0.1176687777952138</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5126324083984914</v>
+        <v>0.5284164540518649</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1131567103077251</v>
+        <v>0.1166067424628139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5515984544093651</v>
+        <v>0.532170763639384</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1082926796238192</v>
+        <v>0.1122017586505343</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5689359053079259</v>
+        <v>0.5478776681587636</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.09440483158104968</v>
+        <v>0.1122017586505342</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6197421356182027</v>
+        <v>0.5478776681587636</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09146588560036037</v>
+        <v>-0.1108121024374461</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6307285485716386</v>
+        <v>0.5528773983153887</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08691754506027183</v>
+        <v>-0.1051579002299659</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6478836876133012</v>
+        <v>0.5734357169615986</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.08621770894937246</v>
+        <v>0.1041536293246232</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6505393295711024</v>
+        <v>0.5771227410229327</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.08513622022150613</v>
+        <v>0.102439373835075</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6546514659922442</v>
+        <v>0.5834406780480638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06962859160037028</v>
+        <v>0.09898343699420048</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7146556103342704</v>
+        <v>0.5962694991076612</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0642661284588748</v>
+        <v>0.09834515609203946</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7358213416432943</v>
+        <v>0.5986521147714948</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.06426612845887469</v>
+        <v>0.09776605605826709</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7358213416432946</v>
+        <v>0.600817347879129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.06206742400918981</v>
+        <v>0.09436007109989797</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7445557785200176</v>
+        <v>0.6136193778168213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.06206742400918976</v>
+        <v>0.09400821673770061</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7445557785200176</v>
+        <v>0.6149483573938138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.05976406809937704</v>
+        <v>0.08794722701549561</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7537393569357347</v>
+        <v>0.6380262226465666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.05836075945718729</v>
+        <v>0.0878627096960454</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7593506823731611</v>
+        <v>0.6383504583028548</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.05668258353761198</v>
+        <v>0.07862739324479212</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7660768388497273</v>
+        <v>0.6741636237022516</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05356426084645639</v>
+        <v>0.06561250167529162</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7786191505293054</v>
+        <v>0.7258278016805512</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05356426084645635</v>
+        <v>0.06561250167529155</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7786191505293054</v>
+        <v>0.7258278016805512</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.04193525283949655</v>
+        <v>0.04884450240912906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8258512512799021</v>
+        <v>0.7941429928393077</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02620857219558778</v>
+        <v>0.0447106143134243</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8906561857940225</v>
+        <v>0.8112393516185056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02482376439363612</v>
+        <v>0.04310392854151356</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8964020297844129</v>
+        <v>0.8179076003479369</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01636032998232922</v>
+        <v>0.03183906471480723</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9316197315205386</v>
+        <v>0.8649862353796045</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.009552250999798298</v>
+        <v>0.01579290454250335</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9600445247953152</v>
+        <v>0.9327997890335309</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.008162091656804848</v>
+        <v>0.01313372284489981</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9658556872488704</v>
+        <v>0.9440955077648843</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.005054871376779591</v>
+        <v>0.01278294338320962</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9788502959282948</v>
+        <v>0.9455863970608493</v>
       </c>
     </row>
   </sheetData>
